--- a/Code/Results/Cases/Case_2_110/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_110/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.82329516223723</v>
+        <v>1.47377192904213</v>
       </c>
       <c r="C2">
-        <v>1.504153357370853</v>
+        <v>0.5293168308653549</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3651568136553607</v>
+        <v>0.3836592374743972</v>
       </c>
       <c r="F2">
-        <v>3.089262897072132</v>
+        <v>2.891181040996173</v>
       </c>
       <c r="G2">
-        <v>0.0007709216212582882</v>
+        <v>0.002454686167697295</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6905756156741347</v>
+        <v>0.8138053962467424</v>
       </c>
       <c r="J2">
-        <v>0.1113304504742558</v>
+        <v>0.09877265073556174</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.534432049216079</v>
+        <v>1.151298788324876</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.295911822511357</v>
+        <v>1.337329118349317</v>
       </c>
       <c r="C3">
-        <v>1.292857486424282</v>
+        <v>0.475428262252592</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3214085610602595</v>
+        <v>0.3747380058281706</v>
       </c>
       <c r="F3">
-        <v>2.744792945740812</v>
+        <v>2.830483127117958</v>
       </c>
       <c r="G3">
-        <v>0.0007801708428646359</v>
+        <v>0.002460261272735173</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6366118485983563</v>
+        <v>0.8091280925357935</v>
       </c>
       <c r="J3">
-        <v>0.09947091688111698</v>
+        <v>0.09688935948992849</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5879124342690449</v>
+        <v>1.170788999005773</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.977341049221195</v>
+        <v>1.254203563237297</v>
       </c>
       <c r="C4">
-        <v>1.165730195250944</v>
+        <v>0.442588014119849</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2949562022454089</v>
+        <v>0.3694211161247694</v>
       </c>
       <c r="F4">
-        <v>2.540778175778939</v>
+        <v>2.795192298004082</v>
       </c>
       <c r="G4">
-        <v>0.0007859779479196681</v>
+        <v>0.002463860007106984</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6060589548906137</v>
+        <v>0.8069250478298287</v>
       </c>
       <c r="J4">
-        <v>0.09257846288867455</v>
+        <v>0.09581831636496929</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6223576652095755</v>
+        <v>1.183336827568893</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.848637951112437</v>
+        <v>1.220490691248528</v>
       </c>
       <c r="C5">
-        <v>1.11448136951816</v>
+        <v>0.4292661127416295</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.284266612272134</v>
+        <v>0.367294877288316</v>
       </c>
       <c r="F5">
-        <v>2.459311050393836</v>
+        <v>2.781305224382265</v>
       </c>
       <c r="G5">
-        <v>0.0007883788492377433</v>
+        <v>0.002465370836960481</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5941923267334346</v>
+        <v>0.8061942285513695</v>
       </c>
       <c r="J5">
-        <v>0.08985656396696839</v>
+        <v>0.09540309984286921</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6367771908326745</v>
+        <v>1.188595778362267</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.827328835412914</v>
+        <v>1.214902383359401</v>
       </c>
       <c r="C6">
-        <v>1.106002431578986</v>
+        <v>0.4270576484061053</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2824966923998105</v>
+        <v>0.3669442595296957</v>
       </c>
       <c r="F6">
-        <v>2.445878544026911</v>
+        <v>2.779029045378607</v>
       </c>
       <c r="G6">
-        <v>0.0007887796605578053</v>
+        <v>0.002465624390235558</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5922553626795448</v>
+        <v>0.8060829230661568</v>
       </c>
       <c r="J6">
-        <v>0.08940953594519385</v>
+        <v>0.09533543037960612</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6391940729065766</v>
+        <v>1.189477805157038</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.975601043836434</v>
+        <v>1.253748248768829</v>
       </c>
       <c r="C7">
-        <v>1.165036906556793</v>
+        <v>0.4424081061930565</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2948116906572196</v>
+        <v>0.3693922771833016</v>
       </c>
       <c r="F7">
-        <v>2.539672984641015</v>
+        <v>2.795003015135634</v>
       </c>
       <c r="G7">
-        <v>0.0007860101849373136</v>
+        <v>0.002463880203044178</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6058966346694277</v>
+        <v>0.806914517472805</v>
       </c>
       <c r="J7">
-        <v>0.09254141667283733</v>
+        <v>0.09581263087387981</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6225506089100108</v>
+        <v>1.183407162637646</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.640236971064667</v>
+        <v>1.426589975161392</v>
       </c>
       <c r="C8">
-        <v>1.430693841005393</v>
+        <v>0.510683759037363</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3499792675075994</v>
+        <v>0.380549825759104</v>
       </c>
       <c r="F8">
-        <v>2.968799856283056</v>
+        <v>2.869839950710173</v>
       </c>
       <c r="G8">
-        <v>0.0007740856059531984</v>
+        <v>0.002456572115793153</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.671391989408157</v>
+        <v>0.8120530878604768</v>
       </c>
       <c r="J8">
-        <v>0.1071534516632298</v>
+        <v>0.09810545992098696</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.552524691587065</v>
+        <v>1.1578982190588</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.995506069668409</v>
+        <v>1.770815637081853</v>
       </c>
       <c r="C9">
-        <v>1.977445487542695</v>
+        <v>0.6466106443111812</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4620727200898216</v>
+        <v>0.4037069028737861</v>
       </c>
       <c r="F9">
-        <v>3.880615466196218</v>
+        <v>3.032443416710578</v>
       </c>
       <c r="G9">
-        <v>0.000751602831670716</v>
+        <v>0.002443626900686007</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8236183736727725</v>
+        <v>0.8274949545811126</v>
       </c>
       <c r="J9">
-        <v>0.1394626921907545</v>
+        <v>0.1032883742768291</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4290554910355606</v>
+        <v>1.112501839705843</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.039415234582748</v>
+        <v>2.027132682713386</v>
       </c>
       <c r="C10">
-        <v>2.403081105887225</v>
+        <v>0.7478326059448932</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5478769776782713</v>
+        <v>0.4215034712468366</v>
       </c>
       <c r="F10">
-        <v>4.610783087019058</v>
+        <v>3.16180208601665</v>
       </c>
       <c r="G10">
-        <v>0.0007354512528304499</v>
+        <v>0.002434950600382235</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9552592935427242</v>
+        <v>0.8421943742457358</v>
       </c>
       <c r="J10">
-        <v>0.166338984058207</v>
+        <v>0.1075290961652584</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.34853125726959</v>
+        <v>1.081994084874653</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.529206490805507</v>
+        <v>2.144523614702337</v>
       </c>
       <c r="C11">
-        <v>2.604122152831224</v>
+        <v>0.7942011876249921</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5879453898039344</v>
+        <v>0.4297708156572924</v>
       </c>
       <c r="F11">
-        <v>4.960696745323418</v>
+        <v>3.222851098389384</v>
       </c>
       <c r="G11">
-        <v>0.0007281344372846869</v>
+        <v>0.002431182525044089</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.020864066321366</v>
+        <v>0.849628299037434</v>
       </c>
       <c r="J11">
-        <v>0.1794927811797749</v>
+        <v>0.1095554400434438</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3145801551529868</v>
+        <v>1.068738472568658</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.717262737012959</v>
+        <v>2.18909336101575</v>
       </c>
       <c r="C12">
-        <v>2.681539473426426</v>
+        <v>0.8118079951660206</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.603295465395135</v>
+        <v>0.4329261747138133</v>
       </c>
       <c r="F12">
-        <v>5.096218443199717</v>
+        <v>3.24628955965855</v>
       </c>
       <c r="G12">
-        <v>0.0007253633291122163</v>
+        <v>0.002429781196578301</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.046671496897844</v>
+        <v>0.8525522427134575</v>
       </c>
       <c r="J12">
-        <v>0.1846318899189399</v>
+        <v>0.1103369935860954</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.302156490743327</v>
+        <v>1.063808940242783</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.676638815273179</v>
+        <v>2.179489251970324</v>
       </c>
       <c r="C13">
-        <v>2.664805086199237</v>
+        <v>0.8080138905031617</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5999811805252975</v>
+        <v>0.4322455129933473</v>
       </c>
       <c r="F13">
-        <v>5.066889027345269</v>
+        <v>3.241227352226645</v>
       </c>
       <c r="G13">
-        <v>0.000725960238840354</v>
+        <v>0.002430081863420699</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.041068005454989</v>
+        <v>0.8519176534950361</v>
       </c>
       <c r="J13">
-        <v>0.1835176232275231</v>
+        <v>0.1101680356817099</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3048120540134498</v>
+        <v>1.064866587782413</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.544623454141401</v>
+        <v>2.148188047637461</v>
       </c>
       <c r="C14">
-        <v>2.610464120903146</v>
+        <v>0.7956487377960002</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5892045241023283</v>
+        <v>0.4300299138868695</v>
       </c>
       <c r="F14">
-        <v>4.971782802129638</v>
+        <v>3.224772949347596</v>
       </c>
       <c r="G14">
-        <v>0.0007279064946302079</v>
+        <v>0.002431066725492322</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.022967036830579</v>
+        <v>0.8498666632107756</v>
       </c>
       <c r="J14">
-        <v>0.1799122548322103</v>
+        <v>0.1096194525171441</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3135490765955051</v>
+        <v>1.068331108366529</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.464110855677404</v>
+        <v>2.129030386430202</v>
       </c>
       <c r="C15">
-        <v>2.577353565466922</v>
+        <v>0.7880810308923856</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5826274793025021</v>
+        <v>0.4286760121711666</v>
       </c>
       <c r="F15">
-        <v>4.913935456728467</v>
+        <v>3.214736005907696</v>
       </c>
       <c r="G15">
-        <v>0.0007290984263331811</v>
+        <v>0.00243167330605794</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.012009859891492</v>
+        <v>0.848624594829289</v>
       </c>
       <c r="J15">
-        <v>0.177725249032413</v>
+        <v>0.109285288715661</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3189586745535458</v>
+        <v>1.070464975293525</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.007742188042641</v>
+        <v>2.019477047381372</v>
       </c>
       <c r="C16">
-        <v>2.390109907536896</v>
+        <v>0.7448089382040166</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5452815538539184</v>
+        <v>0.4209666353843247</v>
       </c>
       <c r="F16">
-        <v>4.58831065766654</v>
+        <v>3.157857038181334</v>
       </c>
       <c r="G16">
-        <v>0.0007359296477535116</v>
+        <v>0.002435200438040764</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9510985772179623</v>
+        <v>0.8417237063553671</v>
       </c>
       <c r="J16">
-        <v>0.1655000339540393</v>
+        <v>0.1073986466478942</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3508078542446249</v>
+        <v>1.082872944826009</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.73188456614804</v>
+        <v>1.952474051356717</v>
       </c>
       <c r="C17">
-        <v>2.277287689784544</v>
+        <v>0.718346634311672</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5226549146280206</v>
+        <v>0.4162811449002461</v>
       </c>
       <c r="F17">
-        <v>4.393405314284649</v>
+        <v>3.123530528601577</v>
       </c>
       <c r="G17">
-        <v>0.0007401250462648123</v>
+        <v>0.002437409909131132</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.915290496706902</v>
+        <v>0.8376826051880641</v>
       </c>
       <c r="J17">
-        <v>0.1582541400452939</v>
+        <v>0.1062663233032453</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3710641073750516</v>
+        <v>1.090644670899025</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.574592077542604</v>
+        <v>1.91400999548506</v>
       </c>
       <c r="C18">
-        <v>2.213078305753015</v>
+        <v>0.7031564408072768</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5097362231339133</v>
+        <v>0.4136023246621292</v>
       </c>
       <c r="F18">
-        <v>4.282940504357697</v>
+        <v>3.103993968338074</v>
       </c>
       <c r="G18">
-        <v>0.0007425413380802715</v>
+        <v>0.002438697578806326</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8952233810917249</v>
+        <v>0.8354285021427188</v>
       </c>
       <c r="J18">
-        <v>0.1541721114061616</v>
+        <v>0.1056241768684174</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3829639419008775</v>
+        <v>1.095173322179377</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.521559204318123</v>
+        <v>1.900999409206065</v>
       </c>
       <c r="C19">
-        <v>2.191449264916571</v>
+        <v>0.6980184419923603</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5053778024175344</v>
+        <v>0.4126980954053181</v>
       </c>
       <c r="F19">
-        <v>4.245807682441409</v>
+        <v>3.097414688906611</v>
       </c>
       <c r="G19">
-        <v>0.0007433601382113322</v>
+        <v>0.002439136458540214</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8885158598005205</v>
+        <v>0.8346773200944781</v>
       </c>
       <c r="J19">
-        <v>0.1528040255896101</v>
+        <v>0.1054083189435531</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.387034457461958</v>
+        <v>1.096716686452956</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.761104972736121</v>
+        <v>1.959598926762567</v>
       </c>
       <c r="C20">
-        <v>2.289225638410812</v>
+        <v>0.7211604514765213</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5250534802102109</v>
+        <v>0.4167782517734366</v>
       </c>
       <c r="F20">
-        <v>4.413980507988754</v>
+        <v>3.127163179189068</v>
       </c>
       <c r="G20">
-        <v>0.0007396781389437113</v>
+        <v>0.002437172965483912</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9190466508965045</v>
+        <v>0.8381055081932089</v>
       </c>
       <c r="J20">
-        <v>0.1590164510729721</v>
+        <v>0.1063859137784817</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3688817069671391</v>
+        <v>1.089811292616561</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.583325608937173</v>
+        <v>2.157378791399083</v>
       </c>
       <c r="C21">
-        <v>2.626388491602711</v>
+        <v>0.7992793656060257</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5923648374717345</v>
+        <v>0.4306800186496815</v>
       </c>
       <c r="F21">
-        <v>4.999631848300112</v>
+        <v>3.22959727737782</v>
       </c>
       <c r="G21">
-        <v>0.0007273348847582906</v>
+        <v>0.002430776755269512</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.028256311911235</v>
+        <v>0.8504661222284966</v>
       </c>
       <c r="J21">
-        <v>0.180966731896639</v>
+        <v>0.1097801967940555</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3109706346373891</v>
+        <v>1.067311045386825</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.136008597696218</v>
+        <v>2.287318785944876</v>
       </c>
       <c r="C22">
-        <v>2.854379357705398</v>
+        <v>0.850615370589253</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6374051907297371</v>
+        <v>0.4399095819350691</v>
       </c>
       <c r="F22">
-        <v>5.400248072196689</v>
+        <v>3.298413923597224</v>
       </c>
       <c r="G22">
-        <v>0.0007192627647596277</v>
+        <v>0.002426745373692809</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.105335749087843</v>
+        <v>0.8591798064633451</v>
       </c>
       <c r="J22">
-        <v>0.1962484324008287</v>
+        <v>0.1120815628693919</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2756736940110276</v>
+        <v>1.053131160249031</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.839465351868853</v>
+        <v>2.217904322084337</v>
       </c>
       <c r="C23">
-        <v>2.731914480763805</v>
+        <v>0.8231901174949598</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6132598213459346</v>
+        <v>0.4349704105765611</v>
       </c>
       <c r="F23">
-        <v>5.184623433002457</v>
+        <v>3.261512828257679</v>
       </c>
       <c r="G23">
-        <v>0.0007235732694522252</v>
+        <v>0.002428883423372108</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.063621794977507</v>
+        <v>0.8544705349502522</v>
       </c>
       <c r="J23">
-        <v>0.1879973648591502</v>
+        <v>0.1108456048073805</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.294261024191659</v>
+        <v>1.06065097519282</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.747890404464329</v>
+        <v>1.956377593683044</v>
       </c>
       <c r="C24">
-        <v>2.283826472145051</v>
+        <v>0.7198882521738597</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5239688114833072</v>
+        <v>0.4165534632518231</v>
       </c>
       <c r="F24">
-        <v>4.404673547941428</v>
+        <v>3.125520240767287</v>
       </c>
       <c r="G24">
-        <v>0.0007398801720300019</v>
+        <v>0.002437280033442629</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9173468860848004</v>
+        <v>0.837914098374128</v>
       </c>
       <c r="J24">
-        <v>0.1586715512540451</v>
+        <v>0.106331819404204</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3698675817728585</v>
+        <v>1.0901878742799</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.621739290571497</v>
+        <v>1.677108060023556</v>
       </c>
       <c r="C25">
-        <v>1.825994518524055</v>
+        <v>0.6096089300387462</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4312285595289609</v>
+        <v>0.3973051252951763</v>
       </c>
       <c r="F25">
-        <v>3.624765767962799</v>
+        <v>2.986734398785359</v>
       </c>
       <c r="G25">
-        <v>0.0007576059661555045</v>
+        <v>0.002446981622975619</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7793870150890427</v>
+        <v>0.8227345738192327</v>
       </c>
       <c r="J25">
-        <v>0.1302446421555317</v>
+        <v>0.1018112867991476</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4608090039124804</v>
+        <v>1.124284968391359</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_110/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_110/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.47377192904213</v>
+        <v>3.82329516223723</v>
       </c>
       <c r="C2">
-        <v>0.5293168308653549</v>
+        <v>1.50415335737074</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3836592374743972</v>
+        <v>0.3651568136553678</v>
       </c>
       <c r="F2">
-        <v>2.891181040996173</v>
+        <v>3.08926289707216</v>
       </c>
       <c r="G2">
-        <v>0.002454686167697295</v>
+        <v>0.0007709216212576221</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8138053962467424</v>
+        <v>0.6905756156741347</v>
       </c>
       <c r="J2">
-        <v>0.09877265073556174</v>
+        <v>0.11133045047427</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.151298788324876</v>
+        <v>0.5344320492160737</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.337329118349317</v>
+        <v>3.295911822511414</v>
       </c>
       <c r="C3">
-        <v>0.475428262252592</v>
+        <v>1.292857486424168</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3747380058281706</v>
+        <v>0.3214085610602595</v>
       </c>
       <c r="F3">
-        <v>2.830483127117958</v>
+        <v>2.744792945740812</v>
       </c>
       <c r="G3">
-        <v>0.002460261272735173</v>
+        <v>0.0007801708429087254</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8091280925357935</v>
+        <v>0.6366118485983492</v>
       </c>
       <c r="J3">
-        <v>0.09688935948992849</v>
+        <v>0.09947091688103882</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.170788999005773</v>
+        <v>0.5879124342690396</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.254203563237297</v>
+        <v>2.977341049221138</v>
       </c>
       <c r="C4">
-        <v>0.442588014119849</v>
+        <v>1.165730195250831</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3694211161247694</v>
+        <v>0.2949562022454373</v>
       </c>
       <c r="F4">
-        <v>2.795192298004082</v>
+        <v>2.540778175778968</v>
       </c>
       <c r="G4">
-        <v>0.002463860007106984</v>
+        <v>0.0007859779479489173</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8069250478298287</v>
+        <v>0.6060589548906208</v>
       </c>
       <c r="J4">
-        <v>0.09581831636496929</v>
+        <v>0.09257846288874561</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.183336827568893</v>
+        <v>0.6223576652095844</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.220490691248528</v>
+        <v>2.848637951112494</v>
       </c>
       <c r="C5">
-        <v>0.4292661127416295</v>
+        <v>1.11448136951816</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.367294877288316</v>
+        <v>0.2842666122721411</v>
       </c>
       <c r="F5">
-        <v>2.781305224382265</v>
+        <v>2.459311050393879</v>
       </c>
       <c r="G5">
-        <v>0.002465370836960481</v>
+        <v>0.0007883788492382912</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8061942285513695</v>
+        <v>0.5941923267334488</v>
       </c>
       <c r="J5">
-        <v>0.09540309984286921</v>
+        <v>0.08985656396703945</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.188595778362267</v>
+        <v>0.6367771908326763</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.214902383359401</v>
+        <v>2.827328835413027</v>
       </c>
       <c r="C6">
-        <v>0.4270576484061053</v>
+        <v>1.106002431578702</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3669442595296957</v>
+        <v>0.282496692399782</v>
       </c>
       <c r="F6">
-        <v>2.779029045378607</v>
+        <v>2.445878544026954</v>
       </c>
       <c r="G6">
-        <v>0.002465624390235558</v>
+        <v>0.0007887796605983363</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8060829230661568</v>
+        <v>0.5922553626795448</v>
       </c>
       <c r="J6">
-        <v>0.09533543037960612</v>
+        <v>0.08940953594517254</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.189477805157038</v>
+        <v>0.6391940729065677</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.253748248768829</v>
+        <v>2.975601043836548</v>
       </c>
       <c r="C7">
-        <v>0.4424081061930565</v>
+        <v>1.165036906556793</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3693922771833016</v>
+        <v>0.2948116906571769</v>
       </c>
       <c r="F7">
-        <v>2.795003015135634</v>
+        <v>2.539672984641015</v>
       </c>
       <c r="G7">
-        <v>0.002463880203044178</v>
+        <v>0.0007860101849792578</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.806914517472805</v>
+        <v>0.6058966346694206</v>
       </c>
       <c r="J7">
-        <v>0.09581263087387981</v>
+        <v>0.09254141667289417</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.183407162637646</v>
+        <v>0.6225506089099397</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.426589975161392</v>
+        <v>3.640236971064837</v>
       </c>
       <c r="C8">
-        <v>0.510683759037363</v>
+        <v>1.43069384100562</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.380549825759104</v>
+        <v>0.3499792675075923</v>
       </c>
       <c r="F8">
-        <v>2.869839950710173</v>
+        <v>2.968799856283027</v>
       </c>
       <c r="G8">
-        <v>0.002456572115793153</v>
+        <v>0.0007740856059988286</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8120530878604768</v>
+        <v>0.6713919894081641</v>
       </c>
       <c r="J8">
-        <v>0.09810545992098696</v>
+        <v>0.1071534516633506</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.1578982190588</v>
+        <v>0.5525246915870596</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.770815637081853</v>
+        <v>4.995506069668465</v>
       </c>
       <c r="C9">
-        <v>0.6466106443111812</v>
+        <v>1.977445487543093</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4037069028737861</v>
+        <v>0.4620727200898358</v>
       </c>
       <c r="F9">
-        <v>3.032443416710578</v>
+        <v>3.880615466196218</v>
       </c>
       <c r="G9">
-        <v>0.002443626900686007</v>
+        <v>0.0007516028316128904</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8274949545811126</v>
+        <v>0.8236183736727938</v>
       </c>
       <c r="J9">
-        <v>0.1032883742768291</v>
+        <v>0.1394626921907474</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.112501839705843</v>
+        <v>0.4290554910356033</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.027132682713386</v>
+        <v>6.039415234582805</v>
       </c>
       <c r="C10">
-        <v>0.7478326059448932</v>
+        <v>2.403081105887111</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4215034712468366</v>
+        <v>0.5478769776783139</v>
       </c>
       <c r="F10">
-        <v>3.16180208601665</v>
+        <v>4.610783087019058</v>
       </c>
       <c r="G10">
-        <v>0.002434950600382235</v>
+        <v>0.000735451252830271</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8421943742457358</v>
+        <v>0.9552592935427384</v>
       </c>
       <c r="J10">
-        <v>0.1075290961652584</v>
+        <v>0.1663389840583136</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.081994084874653</v>
+        <v>0.3485312572695953</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.144523614702337</v>
+        <v>6.529206490805507</v>
       </c>
       <c r="C11">
-        <v>0.7942011876249921</v>
+        <v>2.604122152831394</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4297708156572924</v>
+        <v>0.5879453898039273</v>
       </c>
       <c r="F11">
-        <v>3.222851098389384</v>
+        <v>4.960696745323446</v>
       </c>
       <c r="G11">
-        <v>0.002431182525044089</v>
+        <v>0.0007281344373433565</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.849628299037434</v>
+        <v>1.02086406632138</v>
       </c>
       <c r="J11">
-        <v>0.1095554400434438</v>
+        <v>0.1794927811796683</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.068738472568658</v>
+        <v>0.3145801551529317</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.18909336101575</v>
+        <v>6.717262737012788</v>
       </c>
       <c r="C12">
-        <v>0.8118079951660206</v>
+        <v>2.681539473426142</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4329261747138133</v>
+        <v>0.603295465395135</v>
       </c>
       <c r="F12">
-        <v>3.24628955965855</v>
+        <v>5.096218443199717</v>
       </c>
       <c r="G12">
-        <v>0.002429781196578301</v>
+        <v>0.0007253633290566555</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8525522427134575</v>
+        <v>1.046671496897829</v>
       </c>
       <c r="J12">
-        <v>0.1103369935860954</v>
+        <v>0.1846318899189541</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.063808940242783</v>
+        <v>0.3021564907433323</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.179489251970324</v>
+        <v>6.676638815273179</v>
       </c>
       <c r="C13">
-        <v>0.8080138905031617</v>
+        <v>2.664805086199578</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4322455129933473</v>
+        <v>0.5999811805252619</v>
       </c>
       <c r="F13">
-        <v>3.241227352226645</v>
+        <v>5.066889027345269</v>
       </c>
       <c r="G13">
-        <v>0.002430081863420699</v>
+        <v>0.0007259602388395292</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8519176534950361</v>
+        <v>1.041068005454989</v>
       </c>
       <c r="J13">
-        <v>0.1101680356817099</v>
+        <v>0.1835176232273383</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.064866587782413</v>
+        <v>0.304812054013448</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.148188047637461</v>
+        <v>6.544623454141288</v>
       </c>
       <c r="C14">
-        <v>0.7956487377960002</v>
+        <v>2.6104641209036</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4300299138868695</v>
+        <v>0.589204524102378</v>
       </c>
       <c r="F14">
-        <v>3.224772949347596</v>
+        <v>4.971782802129695</v>
       </c>
       <c r="G14">
-        <v>0.002431066725492322</v>
+        <v>0.0007279064945773966</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8498666632107756</v>
+        <v>1.022967036830593</v>
       </c>
       <c r="J14">
-        <v>0.1096194525171441</v>
+        <v>0.1799122548318906</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.068331108366529</v>
+        <v>0.3135490765955034</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.129030386430202</v>
+        <v>6.464110855677234</v>
       </c>
       <c r="C15">
-        <v>0.7880810308923856</v>
+        <v>2.577353565466922</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4286760121711666</v>
+        <v>0.5826274793025092</v>
       </c>
       <c r="F15">
-        <v>3.214736005907696</v>
+        <v>4.913935456728467</v>
       </c>
       <c r="G15">
-        <v>0.00243167330605794</v>
+        <v>0.0007290984262214061</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.848624594829289</v>
+        <v>1.012009859891478</v>
       </c>
       <c r="J15">
-        <v>0.109285288715661</v>
+        <v>0.1777252490323704</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.070464975293525</v>
+        <v>0.3189586745535635</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.019477047381372</v>
+        <v>6.007742188042414</v>
       </c>
       <c r="C16">
-        <v>0.7448089382040166</v>
+        <v>2.390109907536498</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4209666353843247</v>
+        <v>0.5452815538539255</v>
       </c>
       <c r="F16">
-        <v>3.157857038181334</v>
+        <v>4.58831065766654</v>
       </c>
       <c r="G16">
-        <v>0.002435200438040764</v>
+        <v>0.0007359296476965732</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8417237063553671</v>
+        <v>0.9510985772179481</v>
       </c>
       <c r="J16">
-        <v>0.1073986466478942</v>
+        <v>0.1655000339539257</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.082872944826009</v>
+        <v>0.3508078542446782</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.952474051356717</v>
+        <v>5.731884566147926</v>
       </c>
       <c r="C17">
-        <v>0.718346634311672</v>
+        <v>2.2772876897846</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4162811449002461</v>
+        <v>0.5226549146280277</v>
       </c>
       <c r="F17">
-        <v>3.123530528601577</v>
+        <v>4.393405314284649</v>
       </c>
       <c r="G17">
-        <v>0.002437409909131132</v>
+        <v>0.0007401250462099249</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8376826051880641</v>
+        <v>0.915290496706902</v>
       </c>
       <c r="J17">
-        <v>0.1062663233032453</v>
+        <v>0.1582541400453081</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.090644670899025</v>
+        <v>0.3710641073750534</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.91400999548506</v>
+        <v>5.574592077542661</v>
       </c>
       <c r="C18">
-        <v>0.7031564408072768</v>
+        <v>2.21307830575347</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4136023246621292</v>
+        <v>0.5097362231339702</v>
       </c>
       <c r="F18">
-        <v>3.103993968338074</v>
+        <v>4.282940504357725</v>
       </c>
       <c r="G18">
-        <v>0.002438697578806326</v>
+        <v>0.0007425413380777402</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8354285021427188</v>
+        <v>0.8952233810917249</v>
       </c>
       <c r="J18">
-        <v>0.1056241768684174</v>
+        <v>0.1541721114061261</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.095173322179377</v>
+        <v>0.3829639419008561</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.900999409206065</v>
+        <v>5.521559204318351</v>
       </c>
       <c r="C19">
-        <v>0.6980184419923603</v>
+        <v>2.1914492649164</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4126980954053181</v>
+        <v>0.505377802417506</v>
       </c>
       <c r="F19">
-        <v>3.097414688906611</v>
+        <v>4.245807682441409</v>
       </c>
       <c r="G19">
-        <v>0.002439136458540214</v>
+        <v>0.0007433601382097727</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8346773200944781</v>
+        <v>0.8885158598005205</v>
       </c>
       <c r="J19">
-        <v>0.1054083189435531</v>
+        <v>0.1528040255895675</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.096716686452956</v>
+        <v>0.3870344574619562</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.959598926762567</v>
+        <v>5.761104972736177</v>
       </c>
       <c r="C20">
-        <v>0.7211604514765213</v>
+        <v>2.289225638410983</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4167782517734366</v>
+        <v>0.5250534802101754</v>
       </c>
       <c r="F20">
-        <v>3.127163179189068</v>
+        <v>4.413980507988754</v>
       </c>
       <c r="G20">
-        <v>0.002437172965483912</v>
+        <v>0.0007396781389964129</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8381055081932089</v>
+        <v>0.9190466508965187</v>
       </c>
       <c r="J20">
-        <v>0.1063859137784817</v>
+        <v>0.1590164510729792</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.089811292616561</v>
+        <v>0.3688817069671764</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.157378791399083</v>
+        <v>6.583325608937173</v>
       </c>
       <c r="C21">
-        <v>0.7992793656060257</v>
+        <v>2.62638849160237</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4306800186496815</v>
+        <v>0.5923648374717416</v>
       </c>
       <c r="F21">
-        <v>3.22959727737782</v>
+        <v>4.999631848300083</v>
       </c>
       <c r="G21">
-        <v>0.002430776755269512</v>
+        <v>0.0007273348847538281</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8504661222284966</v>
+        <v>1.028256311911207</v>
       </c>
       <c r="J21">
-        <v>0.1097801967940555</v>
+        <v>0.1809667318966888</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.067311045386825</v>
+        <v>0.3109706346373873</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.287318785944876</v>
+        <v>7.136008597696389</v>
       </c>
       <c r="C22">
-        <v>0.850615370589253</v>
+        <v>2.854379357705341</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4399095819350691</v>
+        <v>0.6374051907296945</v>
       </c>
       <c r="F22">
-        <v>3.298413923597224</v>
+        <v>5.400248072196689</v>
       </c>
       <c r="G22">
-        <v>0.002426745373692809</v>
+        <v>0.0007192627647595967</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8591798064633451</v>
+        <v>1.105335749087843</v>
       </c>
       <c r="J22">
-        <v>0.1120815628693919</v>
+        <v>0.1962484324010134</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.053131160249031</v>
+        <v>0.2756736940110258</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.217904322084337</v>
+        <v>6.839465351868682</v>
       </c>
       <c r="C23">
-        <v>0.8231901174949598</v>
+        <v>2.731914480763749</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4349704105765611</v>
+        <v>0.6132598213459204</v>
       </c>
       <c r="F23">
-        <v>3.261512828257679</v>
+        <v>5.184623433002457</v>
       </c>
       <c r="G23">
-        <v>0.002428883423372108</v>
+        <v>0.0007235732693912057</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8544705349502522</v>
+        <v>1.063621794977507</v>
       </c>
       <c r="J23">
-        <v>0.1108456048073805</v>
+        <v>0.1879973648590862</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.06065097519282</v>
+        <v>0.2942610241916519</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.956377593683044</v>
+        <v>5.747890404464329</v>
       </c>
       <c r="C24">
-        <v>0.7198882521738597</v>
+        <v>2.283826472145222</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4165534632518231</v>
+        <v>0.5239688114833356</v>
       </c>
       <c r="F24">
-        <v>3.125520240767287</v>
+        <v>4.404673547941428</v>
       </c>
       <c r="G24">
-        <v>0.002437280033442629</v>
+        <v>0.0007398801719731306</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.837914098374128</v>
+        <v>0.9173468860847862</v>
       </c>
       <c r="J24">
-        <v>0.106331819404204</v>
+        <v>0.1586715512540522</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.0901878742799</v>
+        <v>0.3698675817728496</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.677108060023556</v>
+        <v>4.621739290571497</v>
       </c>
       <c r="C25">
-        <v>0.6096089300387462</v>
+        <v>1.825994518524169</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3973051252951763</v>
+        <v>0.4312285595289254</v>
       </c>
       <c r="F25">
-        <v>2.986734398785359</v>
+        <v>3.624765767962856</v>
       </c>
       <c r="G25">
-        <v>0.002446981622975619</v>
+        <v>0.0007576059659956774</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8227345738192327</v>
+        <v>0.7793870150890356</v>
       </c>
       <c r="J25">
-        <v>0.1018112867991476</v>
+        <v>0.1302446421555175</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.124284968391359</v>
+        <v>0.4608090039124662</v>
       </c>
       <c r="O25">
         <v>0</v>
